--- a/similarities/split_global/harmonic_similarity_timestamps_234.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_234.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,278 +484,306 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'E/4']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:17.913000', '0:00:26.611000')]</t>
+          <t>('0:00:08.300000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=17.913']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F/3', 'Bb', 'C:maj', 'F:maj']]</t>
+          <t>['C:7', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'F', 'Bb']]</t>
+          <t>['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:03.461000', '0:01:06.732000')]</t>
+          <t>('0:00:12.503707', '0:00:19.759943')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:55.589104', '0:01:14.118628')]</t>
+          <t>('0:01:17.300000', '0:01:20.480000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=55.589104']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=77.3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:58.920000', '0:01:06.100000')]</t>
+          <t>('0:01:08.800000', '0:01:33.270000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.236303', '0:00:12.162018')]</t>
+          <t>('0:00:31.260000', '0:00:45.880000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=68.8</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=9.236303']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=31.26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_30</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D/7', 'A/3', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:18.920000', '0:00:24.120000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:08.820000', '0:01:24.540000')]</t>
+          <t>('0:00:11.062412', '0:00:12.567886')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=18.92</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7', 'D'], ['A', 'D', 'A', 'B:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:16.562199', '0:00:24.735623'), ('0:01:10.583424', '0:01:20.010725')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:06.260000', '0:01:12.240000'), ('0:00:21.580000', '0:00:30.480000')]</t>
+          <t>('0:00:48', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=16.562199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=70.583424']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -765,437 +793,445 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:21.340000', '0:00:24.960000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:06.700000')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=21.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:31.840929', '0:00:37.216349'), ('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:00:08.158789', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:58.640000', '0:02:03.070000'), ('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=31.840929', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+          <t>('0:00:55.580000', '0:01:02.320000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=36.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:23.840000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:28.440000')]</t>
+          <t>('0:00:00.580000', '0:00:09.400000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:7/3', 'D', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:18.954550', '0:00:24.340331')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:06.740000', '0:00:12.420000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=18.95455']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=6.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:03.050000', '0:00:08.260000')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:20.080000', '0:00:23.280000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=3.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=20.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F', 'G', 'C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:04.394943', '0:00:10.199931')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+          <t>('0:00:21.224000', '0:00:31.355000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=4.394943</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=21.224</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['E', 'B:7', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:02.680000', '0:00:08.620000')]</t>
+          <t>('0:01:01.683832', '0:01:11.056785')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
+          <t>('0:00:27', '0:00:49.860000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=2.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=27.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
